--- a/subway.xlsx
+++ b/subway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13588158-4DCF-4BF8-BDCB-A97538274F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3826A9D-8C61-44C1-BF72-3FE2E8E13CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,6 +539,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(동해선)</t>
@@ -554,7 +555,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -601,6 +602,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5416,7 +5424,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6303,7 +6311,7 @@
         <v>1357</v>
       </c>
       <c r="C24" s="2">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>

--- a/subway.xlsx
+++ b/subway.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subway_tkinter\subway_tkinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3826A9D-8C61-44C1-BF72-3FE2E8E13CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C4BDA2-6D1D-49CA-9E02-FA681B33EB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14205" yWindow="1290" windowWidth="23550" windowHeight="15225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1호선" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="동해선" sheetId="5" r:id="rId5"/>
     <sheet name="부김선" sheetId="6" r:id="rId6"/>
     <sheet name="환승역" sheetId="7" r:id="rId7"/>
+    <sheet name="호선정보" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="175">
   <si>
     <t>지하철명</t>
   </si>
@@ -550,12 +551,44 @@
     <t>좌천</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>지하철명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>노선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2호선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3호선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4호선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동해선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>부김선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -610,6 +643,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -637,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -649,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -869,8 +926,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2446,7 +2503,9 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -4135,7 +4194,9 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -4836,7 +4897,9 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -5423,8 +5486,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6354,7 +6417,9 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -7361,4 +7426,1292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C044B1D-C3E8-4014-A3A7-46CFFCC78E41}">
+  <dimension ref="A1:B159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139:B159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.5">
+      <c r="A1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5">
+      <c r="A23" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="13.5">
+      <c r="A120" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="13.5">
+      <c r="A131" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/subway.xlsx
+++ b/subway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subway_tkinter\subway_tkinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C4BDA2-6D1D-49CA-9E02-FA681B33EB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08B566-6C81-4D2D-AB5C-9ED714A7E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="1290" windowWidth="23550" windowHeight="15225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="2010" windowWidth="23550" windowHeight="15225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1호선" sheetId="1" r:id="rId1"/>
@@ -507,9 +507,6 @@
   </si>
   <si>
     <t>2호선</t>
-  </si>
-  <si>
-    <t>덕전</t>
   </si>
   <si>
     <t>4호선</t>
@@ -581,6 +578,10 @@
   </si>
   <si>
     <t>부김선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕천</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,6 +707,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1770,7 +1772,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2">
         <v>820</v>
@@ -5684,7 +5686,7 @@
     </row>
     <row r="6" spans="1:12" ht="13.5">
       <c r="A6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2">
         <v>872</v>
@@ -6102,7 +6104,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2">
         <v>1221</v>
@@ -7272,8 +7274,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7312,8 +7314,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>160</v>
+      <c r="A4" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>159</v>
@@ -7330,7 +7332,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7341,7 +7343,7 @@
         <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7349,10 +7351,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7360,10 +7362,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7371,7 +7373,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>157</v>
@@ -7382,10 +7384,10 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7393,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>159</v>
@@ -7407,7 +7409,7 @@
         <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7432,7 +7434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C044B1D-C3E8-4014-A3A7-46CFFCC78E41}">
   <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B139" sqref="B139:B159"/>
     </sheetView>
   </sheetViews>
@@ -7440,10 +7442,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5">
       <c r="A1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7451,7 +7453,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7459,7 +7461,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7467,7 +7469,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7475,7 +7477,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7483,7 +7485,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7491,7 +7493,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7499,7 +7501,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7507,7 +7509,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7515,7 +7517,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7523,7 +7525,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7531,7 +7533,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7539,7 +7541,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7547,7 +7549,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7555,7 +7557,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7563,7 +7565,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7571,7 +7573,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7579,7 +7581,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7587,7 +7589,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7595,7 +7597,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7603,7 +7605,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7611,15 +7613,15 @@
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5">
       <c r="A23" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7627,7 +7629,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7635,7 +7637,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7643,7 +7645,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7651,7 +7653,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7659,7 +7661,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7667,7 +7669,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7675,7 +7677,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7683,7 +7685,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7691,7 +7693,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7699,7 +7701,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7707,7 +7709,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7715,7 +7717,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7723,7 +7725,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7731,7 +7733,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7739,7 +7741,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7747,7 +7749,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7755,7 +7757,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7763,7 +7765,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7771,7 +7773,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7779,7 +7781,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7787,7 +7789,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7795,7 +7797,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7803,7 +7805,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7811,7 +7813,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7819,7 +7821,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7827,7 +7829,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7835,7 +7837,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7843,7 +7845,7 @@
         <v>60</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7851,7 +7853,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7859,7 +7861,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7867,7 +7869,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7875,7 +7877,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7883,7 +7885,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7891,7 +7893,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7899,7 +7901,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7907,7 +7909,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7915,7 +7917,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7923,7 +7925,7 @@
         <v>70</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7931,7 +7933,7 @@
         <v>71</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7939,7 +7941,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7947,7 +7949,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7955,7 +7957,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7963,7 +7965,7 @@
         <v>35</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7971,7 +7973,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7979,7 +7981,7 @@
         <v>76</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7987,7 +7989,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7995,7 +7997,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8003,7 +8005,7 @@
         <v>79</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8011,7 +8013,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -8019,7 +8021,7 @@
         <v>81</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -8027,7 +8029,7 @@
         <v>82</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -8035,7 +8037,7 @@
         <v>83</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -8043,7 +8045,7 @@
         <v>84</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -8051,7 +8053,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8059,7 +8061,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -8067,7 +8069,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -8075,7 +8077,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8083,7 +8085,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8091,7 +8093,7 @@
         <v>90</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -8099,7 +8101,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -8107,7 +8109,7 @@
         <v>92</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8115,7 +8117,7 @@
         <v>93</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8123,7 +8125,7 @@
         <v>94</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -8131,7 +8133,7 @@
         <v>95</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -8139,7 +8141,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -8147,7 +8149,7 @@
         <v>61</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -8155,7 +8157,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -8163,7 +8165,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -8171,7 +8173,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -8179,7 +8181,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -8187,7 +8189,7 @@
         <v>101</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -8195,7 +8197,7 @@
         <v>102</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -8203,7 +8205,7 @@
         <v>103</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -8211,7 +8213,7 @@
         <v>39</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -8219,7 +8221,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -8227,7 +8229,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -8235,7 +8237,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -8243,7 +8245,7 @@
         <v>85</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -8251,7 +8253,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -8259,7 +8261,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -8267,7 +8269,7 @@
         <v>109</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -8275,7 +8277,7 @@
         <v>110</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -8283,7 +8285,7 @@
         <v>111</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -8291,7 +8293,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -8299,7 +8301,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -8307,7 +8309,7 @@
         <v>114</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -8315,7 +8317,7 @@
         <v>115</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -8323,7 +8325,7 @@
         <v>116</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -8331,7 +8333,7 @@
         <v>117</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -8339,7 +8341,7 @@
         <v>118</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -8347,7 +8349,7 @@
         <v>41</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -8355,7 +8357,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -8363,7 +8365,7 @@
         <v>36</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -8371,7 +8373,7 @@
         <v>119</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -8379,7 +8381,7 @@
         <v>103</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -8387,15 +8389,15 @@
         <v>40</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="13.5">
       <c r="A120" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -8403,7 +8405,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -8411,7 +8413,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8419,7 +8421,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8427,7 +8429,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8435,7 +8437,7 @@
         <v>88</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -8443,7 +8445,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -8451,7 +8453,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8459,7 +8461,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -8467,7 +8469,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -8475,15 +8477,15 @@
         <v>128</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="13.5">
       <c r="A131" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -8491,7 +8493,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8499,7 +8501,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -8507,7 +8509,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8515,7 +8517,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8523,7 +8525,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8531,7 +8533,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8539,7 +8541,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8547,7 +8549,7 @@
         <v>67</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8555,7 +8557,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8563,7 +8565,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -8571,7 +8573,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -8579,7 +8581,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -8587,7 +8589,7 @@
         <v>140</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -8595,7 +8597,7 @@
         <v>93</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -8603,7 +8605,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -8611,7 +8613,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -8619,7 +8621,7 @@
         <v>143</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -8627,7 +8629,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -8635,7 +8637,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -8643,7 +8645,7 @@
         <v>146</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -8651,7 +8653,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -8659,7 +8661,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -8667,7 +8669,7 @@
         <v>149</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -8675,7 +8677,7 @@
         <v>150</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -8683,7 +8685,7 @@
         <v>151</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -8691,7 +8693,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -8699,7 +8701,7 @@
         <v>153</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -8707,11 +8709,12 @@
         <v>154</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/subway.xlsx
+++ b/subway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subway_tkinter\subway_tkinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08B566-6C81-4D2D-AB5C-9ED714A7E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63E52C-8939-41E8-8E9E-6A66764E3F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="2010" windowWidth="23550" windowHeight="15225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1호선" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,18 @@
     <sheet name="환승역" sheetId="7" r:id="rId7"/>
     <sheet name="호선정보" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -928,8 +939,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -979,8 +990,8 @@
       <c r="B2" s="3">
         <v>278</v>
       </c>
-      <c r="C2" s="3">
-        <v>704</v>
+      <c r="C2">
+        <v>624</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1017,8 +1028,8 @@
       <c r="B3" s="3">
         <v>278</v>
       </c>
-      <c r="C3" s="3">
-        <v>735</v>
+      <c r="C3">
+        <v>655</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1055,8 +1066,8 @@
       <c r="B4" s="3">
         <v>278</v>
       </c>
-      <c r="C4" s="3">
-        <v>764</v>
+      <c r="C4">
+        <v>684</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1093,8 +1104,8 @@
       <c r="B5" s="3">
         <v>278</v>
       </c>
-      <c r="C5" s="3">
-        <v>795</v>
+      <c r="C5">
+        <v>715</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1131,8 +1142,8 @@
       <c r="B6" s="3">
         <v>278</v>
       </c>
-      <c r="C6" s="3">
-        <v>828</v>
+      <c r="C6">
+        <v>748</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1169,8 +1180,8 @@
       <c r="B7" s="3">
         <v>294</v>
       </c>
-      <c r="C7" s="3">
-        <v>853</v>
+      <c r="C7">
+        <v>773</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1207,8 +1218,8 @@
       <c r="B8" s="3">
         <v>334</v>
       </c>
-      <c r="C8" s="3">
-        <v>872</v>
+      <c r="C8">
+        <v>792</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1245,8 +1256,8 @@
       <c r="B9" s="3">
         <v>382</v>
       </c>
-      <c r="C9" s="3">
-        <v>872</v>
+      <c r="C9">
+        <v>792</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1283,8 +1294,8 @@
       <c r="B10" s="3">
         <v>429</v>
       </c>
-      <c r="C10" s="3">
-        <v>872</v>
+      <c r="C10">
+        <v>792</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1321,8 +1332,8 @@
       <c r="B11" s="3">
         <v>476</v>
       </c>
-      <c r="C11" s="3">
-        <v>872</v>
+      <c r="C11">
+        <v>792</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1359,8 +1370,8 @@
       <c r="B12" s="3">
         <v>523</v>
       </c>
-      <c r="C12" s="3">
-        <v>872</v>
+      <c r="C12">
+        <v>792</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1397,8 +1408,8 @@
       <c r="B13" s="3">
         <v>570</v>
       </c>
-      <c r="C13" s="3">
-        <v>872</v>
+      <c r="C13">
+        <v>792</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1435,8 +1446,8 @@
       <c r="B14" s="3">
         <v>618</v>
       </c>
-      <c r="C14" s="3">
-        <v>872</v>
+      <c r="C14">
+        <v>792</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1473,8 +1484,8 @@
       <c r="B15" s="3">
         <v>665</v>
       </c>
-      <c r="C15" s="3">
-        <v>872</v>
+      <c r="C15">
+        <v>792</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1511,8 +1522,8 @@
       <c r="B16" s="3">
         <v>712</v>
       </c>
-      <c r="C16" s="3">
-        <v>872</v>
+      <c r="C16">
+        <v>792</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1549,8 +1560,8 @@
       <c r="B17" s="3">
         <v>759</v>
       </c>
-      <c r="C17" s="3">
-        <v>872</v>
+      <c r="C17">
+        <v>792</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1587,8 +1598,8 @@
       <c r="B18" s="3">
         <v>799</v>
       </c>
-      <c r="C18" s="3">
-        <v>853</v>
+      <c r="C18">
+        <v>773</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1618,15 +1629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25">
+    <row r="19" spans="1:12" ht="12.75">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>820</v>
       </c>
-      <c r="C19" s="3">
-        <v>824</v>
+      <c r="C19">
+        <v>744</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1656,15 +1667,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25">
+    <row r="20" spans="1:12" ht="12.75">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>820</v>
       </c>
-      <c r="C20" s="3">
-        <v>796</v>
+      <c r="C20">
+        <v>716</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1694,15 +1705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25">
+    <row r="21" spans="1:12" ht="12.75">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="2">
         <v>820</v>
       </c>
-      <c r="C21" s="3">
-        <v>774</v>
+      <c r="C21">
+        <v>694</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1732,15 +1743,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.25">
+    <row r="22" spans="1:12" ht="12.75">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2">
         <v>820</v>
       </c>
-      <c r="C22" s="3">
-        <v>749</v>
+      <c r="C22">
+        <v>669</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1777,8 +1788,8 @@
       <c r="B23" s="2">
         <v>820</v>
       </c>
-      <c r="C23" s="3">
-        <v>726</v>
+      <c r="C23">
+        <v>646</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1808,15 +1819,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.25">
+    <row r="24" spans="1:12" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>820</v>
       </c>
-      <c r="C24" s="3">
-        <v>703</v>
+      <c r="C24">
+        <v>623</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1846,15 +1857,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.25">
+    <row r="25" spans="1:12" ht="12.75">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="2">
         <v>820</v>
       </c>
-      <c r="C25" s="3">
-        <v>679</v>
+      <c r="C25">
+        <v>599</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1884,15 +1895,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.25">
+    <row r="26" spans="1:12" ht="12.75">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>820</v>
       </c>
-      <c r="C26" s="3">
-        <v>651</v>
+      <c r="C26">
+        <v>571</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1922,15 +1933,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.25">
+    <row r="27" spans="1:12" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="2">
         <v>820</v>
       </c>
-      <c r="C27" s="3">
-        <v>604</v>
+      <c r="C27">
+        <v>524</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1960,15 +1971,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.25">
+    <row r="28" spans="1:12" ht="12.75">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="2">
         <v>820</v>
       </c>
-      <c r="C28" s="3">
-        <v>569</v>
+      <c r="C28">
+        <v>489</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1998,15 +2009,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.25">
+    <row r="29" spans="1:12" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="2">
         <v>820</v>
       </c>
-      <c r="C29" s="3">
-        <v>523</v>
+      <c r="C29">
+        <v>443</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2036,15 +2047,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.25">
+    <row r="30" spans="1:12" ht="12.75">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="2">
         <v>820</v>
       </c>
-      <c r="C30" s="3">
-        <v>485</v>
+      <c r="C30">
+        <v>405</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2081,8 +2092,8 @@
       <c r="B31" s="2">
         <v>820</v>
       </c>
-      <c r="C31" s="2">
-        <v>444</v>
+      <c r="C31">
+        <v>364</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2112,15 +2123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25">
+    <row r="32" spans="1:12" ht="12.75">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="2">
         <v>820</v>
       </c>
-      <c r="C32" s="3">
-        <v>406</v>
+      <c r="C32">
+        <v>326</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2150,15 +2161,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.25">
+    <row r="33" spans="1:12" ht="12.75">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>820</v>
       </c>
-      <c r="C33" s="3">
-        <v>380</v>
+      <c r="C33">
+        <v>300</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -2188,15 +2199,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.25">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>820</v>
       </c>
-      <c r="C34" s="3">
-        <v>353</v>
+      <c r="C34">
+        <v>273</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -2226,15 +2237,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.25">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>820</v>
       </c>
-      <c r="C35" s="3">
-        <v>327</v>
+      <c r="C35">
+        <v>247</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2264,15 +2275,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.25">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>820</v>
       </c>
-      <c r="C36" s="3">
-        <v>301</v>
+      <c r="C36">
+        <v>221</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2302,15 +2313,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.25">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>820</v>
       </c>
-      <c r="C37" s="3">
-        <v>273</v>
+      <c r="C37">
+        <v>193</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2340,15 +2351,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.25">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="2">
         <v>820</v>
       </c>
-      <c r="C38" s="3">
-        <v>247</v>
+      <c r="C38">
+        <v>167</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2378,15 +2389,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.25">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="2">
         <v>820</v>
       </c>
-      <c r="C39" s="3">
-        <v>221</v>
+      <c r="C39">
+        <v>141</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2416,15 +2427,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.25">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="2">
         <v>820</v>
       </c>
-      <c r="C40" s="3">
-        <v>194</v>
+      <c r="C40">
+        <v>114</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2454,15 +2465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.25">
+    <row r="41" spans="1:12" ht="12.75">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="2">
         <v>820</v>
       </c>
-      <c r="C41" s="3">
-        <v>167</v>
+      <c r="C41">
+        <v>87</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -2505,8 +2516,8 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2556,8 +2567,8 @@
       <c r="B2" s="3">
         <v>551</v>
       </c>
-      <c r="C2" s="3">
-        <v>169</v>
+      <c r="C2">
+        <v>89</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2594,8 +2605,8 @@
       <c r="B3" s="3">
         <v>550</v>
       </c>
-      <c r="C3" s="3">
-        <v>190</v>
+      <c r="C3">
+        <v>110</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2632,8 +2643,8 @@
       <c r="B4" s="3">
         <v>551</v>
       </c>
-      <c r="C4" s="3">
-        <v>216</v>
+      <c r="C4">
+        <v>136</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2670,8 +2681,8 @@
       <c r="B5" s="3">
         <v>551</v>
       </c>
-      <c r="C5" s="3">
-        <v>239</v>
+      <c r="C5">
+        <v>159</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2708,8 +2719,8 @@
       <c r="B6" s="3">
         <v>551</v>
       </c>
-      <c r="C6" s="3">
-        <v>263</v>
+      <c r="C6">
+        <v>183</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2746,8 +2757,8 @@
       <c r="B7" s="3">
         <v>551</v>
       </c>
-      <c r="C7" s="3">
-        <v>286</v>
+      <c r="C7">
+        <v>206</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2784,8 +2795,8 @@
       <c r="B8" s="3">
         <v>551</v>
       </c>
-      <c r="C8" s="3">
-        <v>310</v>
+      <c r="C8">
+        <v>230</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2822,8 +2833,8 @@
       <c r="B9" s="3">
         <v>551</v>
       </c>
-      <c r="C9" s="3">
-        <v>333</v>
+      <c r="C9">
+        <v>253</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2860,8 +2871,8 @@
       <c r="B10" s="3">
         <v>551</v>
       </c>
-      <c r="C10" s="3">
-        <v>357</v>
+      <c r="C10">
+        <v>277</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2898,8 +2909,8 @@
       <c r="B11" s="3">
         <v>551</v>
       </c>
-      <c r="C11" s="3">
-        <v>381</v>
+      <c r="C11">
+        <v>301</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -2936,8 +2947,8 @@
       <c r="B12" s="3">
         <v>551</v>
       </c>
-      <c r="C12" s="3">
-        <v>406</v>
+      <c r="C12">
+        <v>326</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2974,8 +2985,8 @@
       <c r="B13" s="3">
         <v>551</v>
       </c>
-      <c r="C13" s="3">
-        <v>443</v>
+      <c r="C13">
+        <v>363</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -3012,8 +3023,8 @@
       <c r="B14" s="3">
         <v>551</v>
       </c>
-      <c r="C14" s="3">
-        <v>474</v>
+      <c r="C14">
+        <v>394</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -3050,8 +3061,8 @@
       <c r="B15" s="3">
         <v>551</v>
       </c>
-      <c r="C15" s="3">
-        <v>505</v>
+      <c r="C15">
+        <v>425</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -3088,8 +3099,8 @@
       <c r="B16" s="3">
         <v>551</v>
       </c>
-      <c r="C16" s="3">
-        <v>536</v>
+      <c r="C16">
+        <v>456</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -3126,8 +3137,8 @@
       <c r="B17" s="3">
         <v>551</v>
       </c>
-      <c r="C17" s="3">
-        <v>568</v>
+      <c r="C17">
+        <v>488</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -3164,8 +3175,8 @@
       <c r="B18" s="2">
         <v>551</v>
       </c>
-      <c r="C18" s="2">
-        <v>599</v>
+      <c r="C18">
+        <v>519</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3202,8 +3213,8 @@
       <c r="B19" s="3">
         <v>563</v>
       </c>
-      <c r="C19" s="3">
-        <v>625</v>
+      <c r="C19">
+        <v>545</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -3240,8 +3251,8 @@
       <c r="B20" s="3">
         <v>589</v>
       </c>
-      <c r="C20" s="3">
-        <v>647</v>
+      <c r="C20">
+        <v>567</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -3278,8 +3289,8 @@
       <c r="B21" s="3">
         <v>627</v>
       </c>
-      <c r="C21" s="3">
-        <v>651</v>
+      <c r="C21">
+        <v>571</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3316,8 +3327,8 @@
       <c r="B22" s="3">
         <v>667</v>
       </c>
-      <c r="C22" s="3">
-        <v>651</v>
+      <c r="C22">
+        <v>571</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -3354,8 +3365,8 @@
       <c r="B23" s="3">
         <v>707</v>
       </c>
-      <c r="C23" s="3">
-        <v>651</v>
+      <c r="C23">
+        <v>571</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3392,8 +3403,8 @@
       <c r="B24" s="3">
         <v>747</v>
       </c>
-      <c r="C24" s="3">
-        <v>651</v>
+      <c r="C24">
+        <v>571</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3430,8 +3441,8 @@
       <c r="B25" s="3">
         <v>787</v>
       </c>
-      <c r="C25" s="3">
-        <v>651</v>
+      <c r="C25">
+        <v>571</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3468,8 +3479,8 @@
       <c r="B26" s="2">
         <v>820</v>
       </c>
-      <c r="C26" s="3">
-        <v>651</v>
+      <c r="C26">
+        <v>571</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -3506,8 +3517,8 @@
       <c r="B27" s="3">
         <v>867</v>
       </c>
-      <c r="C27" s="3">
-        <v>665</v>
+      <c r="C27">
+        <v>585</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -3544,8 +3555,8 @@
       <c r="B28" s="3">
         <v>887</v>
       </c>
-      <c r="C28" s="3">
-        <v>709</v>
+      <c r="C28">
+        <v>629</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3582,8 +3593,8 @@
       <c r="B29" s="3">
         <v>896</v>
       </c>
-      <c r="C29" s="3">
-        <v>760</v>
+      <c r="C29">
+        <v>680</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3620,8 +3631,8 @@
       <c r="B30" s="3">
         <v>937</v>
       </c>
-      <c r="C30" s="3">
-        <v>792</v>
+      <c r="C30">
+        <v>712</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -3658,8 +3669,8 @@
       <c r="B31" s="3">
         <v>996</v>
       </c>
-      <c r="C31" s="3">
-        <v>795</v>
+      <c r="C31">
+        <v>715</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -3696,8 +3707,8 @@
       <c r="B32" s="3">
         <v>1055</v>
       </c>
-      <c r="C32" s="3">
-        <v>794</v>
+      <c r="C32">
+        <v>714</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -3734,8 +3745,8 @@
       <c r="B33" s="3">
         <v>1091</v>
       </c>
-      <c r="C33" s="3">
-        <v>754</v>
+      <c r="C33">
+        <v>674</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -3772,8 +3783,8 @@
       <c r="B34" s="3">
         <v>1095</v>
       </c>
-      <c r="C34" s="3">
-        <v>696</v>
+      <c r="C34">
+        <v>616</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -3810,8 +3821,8 @@
       <c r="B35" s="3">
         <v>1095</v>
       </c>
-      <c r="C35" s="3">
-        <v>644</v>
+      <c r="C35">
+        <v>564</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -3848,8 +3859,8 @@
       <c r="B36" s="3">
         <v>1095</v>
       </c>
-      <c r="C36" s="3">
-        <v>584</v>
+      <c r="C36">
+        <v>504</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -3886,8 +3897,8 @@
       <c r="B37" s="3">
         <v>1095</v>
       </c>
-      <c r="C37" s="3">
-        <v>539</v>
+      <c r="C37">
+        <v>459</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -3924,8 +3935,8 @@
       <c r="B38" s="3">
         <v>1108</v>
       </c>
-      <c r="C38" s="3">
-        <v>470</v>
+      <c r="C38">
+        <v>390</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -3962,8 +3973,8 @@
       <c r="B39" s="3">
         <v>1139</v>
       </c>
-      <c r="C39" s="3">
-        <v>456</v>
+      <c r="C39">
+        <v>376</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -4000,8 +4011,8 @@
       <c r="B40" s="3">
         <v>1186</v>
       </c>
-      <c r="C40" s="3">
-        <v>455</v>
+      <c r="C40">
+        <v>375</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -4038,8 +4049,8 @@
       <c r="B41" s="3">
         <v>1235</v>
       </c>
-      <c r="C41" s="3">
-        <v>456</v>
+      <c r="C41">
+        <v>376</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -4076,8 +4087,8 @@
       <c r="B42" s="3">
         <v>1280</v>
       </c>
-      <c r="C42" s="3">
-        <v>456</v>
+      <c r="C42">
+        <v>376</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -4114,8 +4125,8 @@
       <c r="B43" s="3">
         <v>1328</v>
       </c>
-      <c r="C43" s="3">
-        <v>456</v>
+      <c r="C43">
+        <v>376</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -4152,8 +4163,8 @@
       <c r="B44" s="3">
         <v>1356</v>
       </c>
-      <c r="C44" s="3">
-        <v>417</v>
+      <c r="C44">
+        <v>337</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -4197,7 +4208,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4247,8 +4258,8 @@
       <c r="B2" s="2">
         <v>422</v>
       </c>
-      <c r="C2" s="2">
-        <v>461</v>
+      <c r="C2">
+        <v>381</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4285,8 +4296,8 @@
       <c r="B3" s="3">
         <v>436</v>
       </c>
-      <c r="C3" s="3">
-        <v>428</v>
+      <c r="C3">
+        <v>348</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -4323,8 +4334,8 @@
       <c r="B4" s="3">
         <v>470</v>
       </c>
-      <c r="C4" s="3">
-        <v>406</v>
+      <c r="C4">
+        <v>326</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -4361,8 +4372,8 @@
       <c r="B5" s="3">
         <v>512</v>
       </c>
-      <c r="C5" s="3">
-        <v>406</v>
+      <c r="C5">
+        <v>326</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -4399,8 +4410,8 @@
       <c r="B6" s="3">
         <v>551</v>
       </c>
-      <c r="C6" s="3">
-        <v>406</v>
+      <c r="C6">
+        <v>326</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -4437,8 +4448,8 @@
       <c r="B7" s="3">
         <v>606</v>
       </c>
-      <c r="C7" s="3">
-        <v>406</v>
+      <c r="C7">
+        <v>326</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -4475,8 +4486,8 @@
       <c r="B8" s="3">
         <v>662</v>
       </c>
-      <c r="C8" s="3">
-        <v>406</v>
+      <c r="C8">
+        <v>326</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -4513,8 +4524,8 @@
       <c r="B9" s="3">
         <v>716</v>
       </c>
-      <c r="C9" s="3">
-        <v>407</v>
+      <c r="C9">
+        <v>327</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -4551,8 +4562,8 @@
       <c r="B10" s="3">
         <v>760</v>
       </c>
-      <c r="C10" s="3">
-        <v>447</v>
+      <c r="C10">
+        <v>367</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -4589,8 +4600,8 @@
       <c r="B11" s="3">
         <v>766</v>
       </c>
-      <c r="C11" s="3">
-        <v>469</v>
+      <c r="C11">
+        <v>389</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -4627,8 +4638,8 @@
       <c r="B12" s="3">
         <v>778</v>
       </c>
-      <c r="C12" s="3">
-        <v>480</v>
+      <c r="C12">
+        <v>400</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -4665,8 +4676,8 @@
       <c r="B13" s="2">
         <v>801</v>
       </c>
-      <c r="C13" s="2">
-        <v>485</v>
+      <c r="C13">
+        <v>405</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -4703,8 +4714,8 @@
       <c r="B14" s="3">
         <v>820</v>
       </c>
-      <c r="C14" s="3">
-        <v>485</v>
+      <c r="C14">
+        <v>405</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -4741,8 +4752,8 @@
       <c r="B15" s="3">
         <v>882</v>
       </c>
-      <c r="C15" s="3">
-        <v>485</v>
+      <c r="C15">
+        <v>405</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -4779,8 +4790,8 @@
       <c r="B16" s="3">
         <v>959</v>
       </c>
-      <c r="C16" s="3">
-        <v>485</v>
+      <c r="C16">
+        <v>405</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -4817,8 +4828,8 @@
       <c r="B17" s="3">
         <v>1047</v>
       </c>
-      <c r="C17" s="3">
-        <v>485</v>
+      <c r="C17">
+        <v>405</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -4855,8 +4866,8 @@
       <c r="B18" s="3">
         <v>1095</v>
       </c>
-      <c r="C18" s="3">
-        <v>539</v>
+      <c r="C18">
+        <v>459</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -4900,7 +4911,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4950,8 +4961,8 @@
       <c r="B2" s="3">
         <v>1094</v>
       </c>
-      <c r="C2" s="3">
-        <v>173</v>
+      <c r="C2">
+        <v>93</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4988,8 +4999,8 @@
       <c r="B3" s="3">
         <v>1094</v>
       </c>
-      <c r="C3" s="3">
-        <v>207</v>
+      <c r="C3">
+        <v>127</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -5026,8 +5037,8 @@
       <c r="B4" s="3">
         <v>1094</v>
       </c>
-      <c r="C4" s="3">
-        <v>246</v>
+      <c r="C4">
+        <v>166</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -5064,8 +5075,8 @@
       <c r="B5" s="3">
         <v>1094</v>
       </c>
-      <c r="C5" s="3">
-        <v>285</v>
+      <c r="C5">
+        <v>205</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -5102,8 +5113,8 @@
       <c r="B6" s="3">
         <v>1094</v>
       </c>
-      <c r="C6" s="3">
-        <v>322</v>
+      <c r="C6">
+        <v>242</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -5140,8 +5151,8 @@
       <c r="B7" s="3">
         <v>1092</v>
       </c>
-      <c r="C7" s="3">
-        <v>358</v>
+      <c r="C7">
+        <v>278</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -5178,8 +5189,8 @@
       <c r="B8" s="3">
         <v>1075</v>
       </c>
-      <c r="C8" s="3">
-        <v>390</v>
+      <c r="C8">
+        <v>310</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -5216,8 +5227,8 @@
       <c r="B9" s="3">
         <v>1028</v>
       </c>
-      <c r="C9" s="3">
-        <v>406</v>
+      <c r="C9">
+        <v>326</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -5254,8 +5265,8 @@
       <c r="B10" s="3">
         <v>990</v>
       </c>
-      <c r="C10" s="3">
-        <v>406</v>
+      <c r="C10">
+        <v>326</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -5292,8 +5303,8 @@
       <c r="B11" s="3">
         <v>952</v>
       </c>
-      <c r="C11" s="3">
-        <v>406</v>
+      <c r="C11">
+        <v>326</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -5330,8 +5341,8 @@
       <c r="B12" s="3">
         <v>916</v>
       </c>
-      <c r="C12" s="3">
-        <v>406</v>
+      <c r="C12">
+        <v>326</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -5368,8 +5379,8 @@
       <c r="B13" s="3">
         <v>876</v>
       </c>
-      <c r="C13" s="3">
-        <v>406</v>
+      <c r="C13">
+        <v>326</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -5406,8 +5417,8 @@
       <c r="B14" s="3">
         <v>822</v>
       </c>
-      <c r="C14" s="3">
-        <v>406</v>
+      <c r="C14">
+        <v>326</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -5444,8 +5455,8 @@
       <c r="B15" s="3">
         <v>760</v>
       </c>
-      <c r="C15" s="3">
-        <v>447</v>
+      <c r="C15">
+        <v>367</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -5489,7 +5500,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5539,8 +5550,8 @@
       <c r="B2" s="2">
         <v>801</v>
       </c>
-      <c r="C2" s="2">
-        <v>604</v>
+      <c r="C2">
+        <v>524</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -5577,8 +5588,8 @@
       <c r="B3" s="2">
         <v>801</v>
       </c>
-      <c r="C3" s="2">
-        <v>544</v>
+      <c r="C3">
+        <v>464</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -5615,8 +5626,8 @@
       <c r="B4" s="2">
         <v>801</v>
       </c>
-      <c r="C4" s="2">
-        <v>485</v>
+      <c r="C4">
+        <v>405</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -5653,8 +5664,8 @@
       <c r="B5" s="2">
         <v>820</v>
       </c>
-      <c r="C5" s="2">
-        <v>444</v>
+      <c r="C5">
+        <v>364</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -5691,8 +5702,8 @@
       <c r="B6" s="2">
         <v>872</v>
       </c>
-      <c r="C6" s="2">
-        <v>444</v>
+      <c r="C6">
+        <v>364</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -5729,8 +5740,8 @@
       <c r="B7" s="2">
         <v>928</v>
       </c>
-      <c r="C7" s="2">
-        <v>444</v>
+      <c r="C7">
+        <v>364</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -5767,8 +5778,8 @@
       <c r="B8" s="2">
         <v>994</v>
       </c>
-      <c r="C8" s="2">
-        <v>444</v>
+      <c r="C8">
+        <v>364</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -5805,8 +5816,8 @@
       <c r="B9" s="2">
         <v>1049</v>
       </c>
-      <c r="C9" s="2">
-        <v>444</v>
+      <c r="C9">
+        <v>364</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -5843,8 +5854,8 @@
       <c r="B10" s="2">
         <v>1143</v>
       </c>
-      <c r="C10" s="2">
-        <v>444</v>
+      <c r="C10">
+        <v>364</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -5881,8 +5892,8 @@
       <c r="B11" s="2">
         <v>1186</v>
       </c>
-      <c r="C11" s="2">
-        <v>444</v>
+      <c r="C11">
+        <v>364</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -5919,8 +5930,8 @@
       <c r="B12" s="2">
         <v>1221</v>
       </c>
-      <c r="C12" s="2">
-        <v>410</v>
+      <c r="C12">
+        <v>330</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -5957,8 +5968,8 @@
       <c r="B13" s="2">
         <v>1221</v>
       </c>
-      <c r="C13" s="2">
-        <v>386</v>
+      <c r="C13">
+        <v>306</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -5995,8 +6006,8 @@
       <c r="B14" s="2">
         <v>1221</v>
       </c>
-      <c r="C14" s="2">
-        <v>360</v>
+      <c r="C14">
+        <v>280</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -6033,8 +6044,8 @@
       <c r="B15" s="2">
         <v>1221</v>
       </c>
-      <c r="C15" s="2">
-        <v>332</v>
+      <c r="C15">
+        <v>252</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -6071,8 +6082,8 @@
       <c r="B16" s="2">
         <v>1221</v>
       </c>
-      <c r="C16" s="2">
-        <v>312</v>
+      <c r="C16">
+        <v>232</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -6109,8 +6120,8 @@
       <c r="B17" s="2">
         <v>1221</v>
       </c>
-      <c r="C17" s="2">
-        <v>285</v>
+      <c r="C17">
+        <v>205</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -6147,8 +6158,8 @@
       <c r="B18" s="2">
         <v>1221</v>
       </c>
-      <c r="C18" s="2">
-        <v>260</v>
+      <c r="C18">
+        <v>180</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -6185,8 +6196,8 @@
       <c r="B19" s="2">
         <v>1221</v>
       </c>
-      <c r="C19" s="2">
-        <v>235</v>
+      <c r="C19">
+        <v>155</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -6223,8 +6234,8 @@
       <c r="B20" s="2">
         <v>1221</v>
       </c>
-      <c r="C20" s="2">
-        <v>209</v>
+      <c r="C20">
+        <v>129</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -6261,8 +6272,8 @@
       <c r="B21" s="2">
         <v>1251</v>
       </c>
-      <c r="C21" s="2">
-        <v>171</v>
+      <c r="C21">
+        <v>91</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -6299,8 +6310,8 @@
       <c r="B22" s="2">
         <v>1283</v>
       </c>
-      <c r="C22" s="2">
-        <v>171</v>
+      <c r="C22">
+        <v>91</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -6337,8 +6348,8 @@
       <c r="B23" s="2">
         <v>1322</v>
       </c>
-      <c r="C23" s="2">
-        <v>171</v>
+      <c r="C23">
+        <v>91</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -6375,8 +6386,8 @@
       <c r="B24" s="2">
         <v>1357</v>
       </c>
-      <c r="C24" s="2">
-        <v>171</v>
+      <c r="C24">
+        <v>91</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -6419,8 +6430,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6470,8 +6481,8 @@
       <c r="B2" s="2">
         <v>551</v>
       </c>
-      <c r="C2" s="2">
-        <v>599</v>
+      <c r="C2">
+        <v>519</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -6508,8 +6519,8 @@
       <c r="B3" s="2">
         <v>519</v>
       </c>
-      <c r="C3" s="2">
-        <v>645</v>
+      <c r="C3">
+        <v>565</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -6546,8 +6557,8 @@
       <c r="B4" s="2">
         <v>459</v>
       </c>
-      <c r="C4" s="2">
-        <v>650</v>
+      <c r="C4">
+        <v>570</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -6584,8 +6595,8 @@
       <c r="B5" s="2">
         <v>429</v>
       </c>
-      <c r="C5" s="2">
-        <v>621</v>
+      <c r="C5">
+        <v>541</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -6622,8 +6633,8 @@
       <c r="B6" s="2">
         <v>422</v>
       </c>
-      <c r="C6" s="2">
-        <v>555</v>
+      <c r="C6">
+        <v>475</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -6660,8 +6671,8 @@
       <c r="B7" s="2">
         <v>422</v>
       </c>
-      <c r="C7" s="2">
-        <v>493</v>
+      <c r="C7">
+        <v>413</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -6698,8 +6709,8 @@
       <c r="B8" s="2">
         <v>422</v>
       </c>
-      <c r="C8" s="2">
-        <v>461</v>
+      <c r="C8">
+        <v>381</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -6736,8 +6747,8 @@
       <c r="B9" s="2">
         <v>412</v>
       </c>
-      <c r="C9" s="2">
-        <v>435</v>
+      <c r="C9">
+        <v>355</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -6774,8 +6785,8 @@
       <c r="B10" s="2">
         <v>391</v>
       </c>
-      <c r="C10" s="2">
-        <v>417</v>
+      <c r="C10">
+        <v>337</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -6812,8 +6823,8 @@
       <c r="B11" s="2">
         <v>363</v>
       </c>
-      <c r="C11" s="2">
-        <v>400</v>
+      <c r="C11">
+        <v>320</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -6850,8 +6861,8 @@
       <c r="B12" s="2">
         <v>327</v>
       </c>
-      <c r="C12" s="2">
-        <v>400</v>
+      <c r="C12">
+        <v>320</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -6888,8 +6899,8 @@
       <c r="B13" s="2">
         <v>305</v>
       </c>
-      <c r="C13" s="2">
-        <v>386</v>
+      <c r="C13">
+        <v>306</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -6926,8 +6937,8 @@
       <c r="B14" s="2">
         <v>296</v>
       </c>
-      <c r="C14" s="2">
-        <v>366</v>
+      <c r="C14">
+        <v>286</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -6964,8 +6975,8 @@
       <c r="B15" s="2">
         <v>292</v>
       </c>
-      <c r="C15" s="2">
-        <v>348</v>
+      <c r="C15">
+        <v>268</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -7002,8 +7013,8 @@
       <c r="B16" s="2">
         <v>292</v>
       </c>
-      <c r="C16" s="2">
-        <v>317</v>
+      <c r="C16">
+        <v>237</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -7040,8 +7051,8 @@
       <c r="B17" s="2">
         <v>292</v>
       </c>
-      <c r="C17" s="2">
-        <v>296</v>
+      <c r="C17">
+        <v>216</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -7078,8 +7089,8 @@
       <c r="B18" s="2">
         <v>292</v>
       </c>
-      <c r="C18" s="2">
-        <v>266</v>
+      <c r="C18">
+        <v>186</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -7116,8 +7127,8 @@
       <c r="B19" s="2">
         <v>292</v>
       </c>
-      <c r="C19" s="2">
-        <v>244</v>
+      <c r="C19">
+        <v>164</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -7154,8 +7165,8 @@
       <c r="B20" s="2">
         <v>292</v>
       </c>
-      <c r="C20" s="2">
-        <v>218</v>
+      <c r="C20">
+        <v>138</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -7192,8 +7203,8 @@
       <c r="B21" s="2">
         <v>292</v>
       </c>
-      <c r="C21" s="2">
-        <v>191</v>
+      <c r="C21">
+        <v>111</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -7230,8 +7241,8 @@
       <c r="B22" s="2">
         <v>292</v>
       </c>
-      <c r="C22" s="2">
-        <v>169</v>
+      <c r="C22">
+        <v>89</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -7274,7 +7285,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -7435,7 +7446,7 @@
   <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B139" sqref="B139:B159"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/subway.xlsx
+++ b/subway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\subway_tkinter\subway_tkinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63E52C-8939-41E8-8E9E-6A66764E3F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48219B83-26A5-4C83-9CFA-21B5D8BE9A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="2175" windowWidth="23550" windowHeight="15225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1호선" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="176">
   <si>
     <t>지하철명</t>
   </si>
@@ -593,6 +593,10 @@
   </si>
   <si>
     <t>덕천</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수로왕릉</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6431,7 +6435,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7082,9 +7086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>150</v>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B18" s="2">
         <v>292</v>
